--- a/Лабораторная работа 5/map.xlsx
+++ b/Лабораторная работа 5/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bulatgumerov/Documents/GitHub/basic_programming/Лабораторная работа 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1001E4-2AFB-E141-8C8C-1A67DF2EC791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FEE8C-4F02-F646-AA14-93AD4BE22F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23540" xr2:uid="{A04CBA61-C621-8F47-BB47-05E5BE98D39F}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>2</v>

--- a/Лабораторная работа 5/map.xlsx
+++ b/Лабораторная работа 5/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bulatgumerov/Documents/GitHub/basic_programming/Лабораторная работа 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FEE8C-4F02-F646-AA14-93AD4BE22F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0029F-8BD3-3942-823D-05B62A9F4F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23540" xr2:uid="{A04CBA61-C621-8F47-BB47-05E5BE98D39F}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/Лабораторная работа 5/map.xlsx
+++ b/Лабораторная работа 5/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bulatgumerov/Documents/GitHub/basic_programming/Лабораторная работа 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD0029F-8BD3-3942-823D-05B62A9F4F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176F2D54-18C5-D547-B804-9A6DB7588356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="23540" xr2:uid="{A04CBA61-C621-8F47-BB47-05E5BE98D39F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{A04CBA61-C621-8F47-BB47-05E5BE98D39F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -508,45 +508,6 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -558,42 +519,6 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>16</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -605,39 +530,6 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>16</v>
-      </c>
-      <c r="Q4">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -649,36 +541,6 @@
       <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>14</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <v>16</v>
-      </c>
-      <c r="Q5">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -690,33 +552,6 @@
       <c r="H6">
         <v>9</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>15</v>
-      </c>
-      <c r="O6">
-        <v>16</v>
-      </c>
-      <c r="P6">
-        <v>17</v>
-      </c>
-      <c r="Q6">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -727,30 +562,6 @@
       </c>
       <c r="I7">
         <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
-      <c r="N7">
-        <v>9</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>11</v>
-      </c>
-      <c r="Q7">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -763,27 +574,6 @@
       <c r="J8">
         <v>33</v>
       </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -795,24 +585,6 @@
       <c r="K9">
         <v>6</v>
       </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>22</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -824,21 +596,6 @@
       <c r="L10">
         <v>4</v>
       </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>44</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -850,18 +607,6 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="O11">
-        <v>7</v>
-      </c>
-      <c r="P11">
-        <v>33</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -873,15 +618,6 @@
       <c r="N12">
         <v>5</v>
       </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="P12">
-        <v>55</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -893,12 +629,6 @@
       <c r="O13">
         <v>5</v>
       </c>
-      <c r="P13">
-        <v>77</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -909,9 +639,6 @@
       </c>
       <c r="P14">
         <v>66</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
